--- a/coordinate_info.xlsx
+++ b/coordinate_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iriscaglayan/Desktop/interactive maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F94376-FDA9-3A45-AA2D-AEAA524FD28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34F38D2-66E0-C74E-8164-4FA7ACC2B71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41000" yWindow="940" windowWidth="27640" windowHeight="16940" xr2:uid="{DFF79B94-489B-6F45-9724-F39B642D8F12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="326">
   <si>
     <t>ABCD3</t>
   </si>
@@ -56,9 +56,6 @@
     <t>ATXN7</t>
   </si>
   <si>
-    <t>ATXN8</t>
-  </si>
-  <si>
     <t>ATXN10</t>
   </si>
   <si>
@@ -224,18 +221,12 @@
     <t>21.0285, 105.8542</t>
   </si>
   <si>
-    <t>46.103417, 11.023004</t>
-  </si>
-  <si>
     <t>51.004964, 2.756749</t>
   </si>
   <si>
     <t>-33.8688, 151.2093</t>
   </si>
   <si>
-    <t>60.979549, 99.215137</t>
-  </si>
-  <si>
     <t>26.827175, -102.708828</t>
   </si>
   <si>
@@ -701,45 +692,12 @@
     <t>51.344339, -0.561676</t>
   </si>
   <si>
-    <t>44.800853, 7.844669</t>
-  </si>
-  <si>
     <t>36.034067, 113.206851</t>
   </si>
   <si>
     <t>PRNP</t>
   </si>
   <si>
-    <t>25.966970, 16.893313</t>
-  </si>
-  <si>
-    <t>-35.277186, -71.497995</t>
-  </si>
-  <si>
-    <t>35.409179, 9.786891</t>
-  </si>
-  <si>
-    <t>48.809019, 20.520991</t>
-  </si>
-  <si>
-    <t>44.894518, 147.391756</t>
-  </si>
-  <si>
-    <t>51.769423, 12.975355</t>
-  </si>
-  <si>
-    <t>47.086827, 14.469496</t>
-  </si>
-  <si>
-    <t>41.651904, 15.472742</t>
-  </si>
-  <si>
-    <t>43.134928, -3.614000</t>
-  </si>
-  <si>
-    <t>52.390572, 18.864027</t>
-  </si>
-  <si>
     <t>35.111583, 39.031717</t>
   </si>
   <si>
@@ -834,6 +792,228 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>63.540426, 25.621709</t>
+  </si>
+  <si>
+    <t>66.775489, 17.729515</t>
+  </si>
+  <si>
+    <t>46.397674, 7.617242</t>
+  </si>
+  <si>
+    <t>60.620840, 8.441838</t>
+  </si>
+  <si>
+    <t>55.635505, 11.463955</t>
+  </si>
+  <si>
+    <t>-21.482820, 120.877463</t>
+  </si>
+  <si>
+    <t>39.750747, -97.631059</t>
+  </si>
+  <si>
+    <t>55.769677, -115.185547</t>
+  </si>
+  <si>
+    <t>41.762116, 15.710810</t>
+  </si>
+  <si>
+    <t>17.370803, 76.318248</t>
+  </si>
+  <si>
+    <t>51.494322, 16.646285</t>
+  </si>
+  <si>
+    <t>43.816715, 19.918839</t>
+  </si>
+  <si>
+    <t>64.828158, 98.341797</t>
+  </si>
+  <si>
+    <t>-29.822535, 18.428528</t>
+  </si>
+  <si>
+    <t>43.202965, -7.953122</t>
+  </si>
+  <si>
+    <t>44.550378, 9.031122</t>
+  </si>
+  <si>
+    <t>25.144519, 72.758678</t>
+  </si>
+  <si>
+    <t>21.175386, -77.882494</t>
+  </si>
+  <si>
+    <t>26.741711, -102.868310</t>
+  </si>
+  <si>
+    <t>5.879001, -66.049109</t>
+  </si>
+  <si>
+    <t>67.204920, 18.476586</t>
+  </si>
+  <si>
+    <t>55.855192, 8.542571</t>
+  </si>
+  <si>
+    <t>67.518400, 24.435186</t>
+  </si>
+  <si>
+    <t>61.619624, 6.995442</t>
+  </si>
+  <si>
+    <t>-8.911875, -76.333293</t>
+  </si>
+  <si>
+    <t>-25.2744, 133.7751</t>
+  </si>
+  <si>
+    <t>45.1000, 15.2000</t>
+  </si>
+  <si>
+    <t>58.5953, 25.0136</t>
+  </si>
+  <si>
+    <t>39.0742, 21.8243</t>
+  </si>
+  <si>
+    <t>31.0461, 34.8516</t>
+  </si>
+  <si>
+    <t>35.9078, 127.7669</t>
+  </si>
+  <si>
+    <t>51.9194, 19.1451</t>
+  </si>
+  <si>
+    <t>29.3759, 47.9774</t>
+  </si>
+  <si>
+    <t>-30.5595, 22.9375</t>
+  </si>
+  <si>
+    <t>-41.831313, 145.795479</t>
+  </si>
+  <si>
+    <t>23.8859, 45.0792</t>
+  </si>
+  <si>
+    <t>23.6978, 120.9605</t>
+  </si>
+  <si>
+    <t>38.9637, 35.2433</t>
+  </si>
+  <si>
+    <t>44.0165, 21.0059</t>
+  </si>
+  <si>
+    <t>15.8700, 100.9925</t>
+  </si>
+  <si>
+    <t>55.3781, -3.4360</t>
+  </si>
+  <si>
+    <t>56.1304, -106.3468</t>
+  </si>
+  <si>
+    <t>40.4637, -3.7492</t>
+  </si>
+  <si>
+    <t>52.1326, 5.2913</t>
+  </si>
+  <si>
+    <t>23.6345, -102.5528</t>
+  </si>
+  <si>
+    <t>36.2048, 138.2529</t>
+  </si>
+  <si>
+    <t>32.4279, 53.6880</t>
+  </si>
+  <si>
+    <t>20.5937, 78.9629</t>
+  </si>
+  <si>
+    <t>16.2650, -61.5510</t>
+  </si>
+  <si>
+    <t>26.8206, 30.8025</t>
+  </si>
+  <si>
+    <t>45.012221, 142.028405</t>
+  </si>
+  <si>
+    <t>47.965318, 6.000096</t>
+  </si>
+  <si>
+    <t>-23.944274, 144.336648</t>
+  </si>
+  <si>
+    <t>47.5162, 14.5501</t>
+  </si>
+  <si>
+    <t>50.8503, 4.3517</t>
+  </si>
+  <si>
+    <t>49.8175, 15.4730</t>
+  </si>
+  <si>
+    <t>35.1264, 33.4299</t>
+  </si>
+  <si>
+    <t>56.2639, 9.5018</t>
+  </si>
+  <si>
+    <t>61.9241, 25.7482</t>
+  </si>
+  <si>
+    <t>46.2276, 2.2137</t>
+  </si>
+  <si>
+    <t>51.1657, 10.4515</t>
+  </si>
+  <si>
+    <t>47.1625, 19.5033</t>
+  </si>
+  <si>
+    <t>41.8719, 12.5674</t>
+  </si>
+  <si>
+    <t>60.4720, 8.4689</t>
+  </si>
+  <si>
+    <t>48.6690, 19.6990</t>
+  </si>
+  <si>
+    <t>46.1512, 14.9955</t>
+  </si>
+  <si>
+    <t>46.8182, 8.2275</t>
+  </si>
+  <si>
+    <t>60.1282, 18.6435</t>
+  </si>
+  <si>
+    <t>37.0902, -95.7129</t>
+  </si>
+  <si>
+    <t>-38.4161, -63.6167</t>
+  </si>
+  <si>
+    <t>49.272226, -123.226029</t>
+  </si>
+  <si>
+    <t>52.812128, 6.408895</t>
+  </si>
+  <si>
+    <t>-27.087592, 117.361838</t>
+  </si>
+  <si>
+    <t>23.946261, 121.340732</t>
   </si>
 </sst>
 </file>
@@ -843,7 +1023,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -864,24 +1044,17 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -919,24 +1092,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1299,11 +1527,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D898FA-69DA-AA44-BBA1-B60D8C1AFFAA}">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1315,13 +1541,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1329,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1337,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1345,39 +1571,39 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1385,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1393,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1401,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1409,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1417,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1425,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1433,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1441,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1449,18 +1675,15 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="1">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1468,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1476,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1484,1560 +1707,2194 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="1">
-        <v>8</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="1">
-        <v>8</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="C43" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>188</v>
+        <v>261</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>189</v>
+        <v>262</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="C46" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="C47" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="C48" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="C49" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="C50" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="C51" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>72</v>
+        <v>270</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>73</v>
+        <v>179</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>183</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>76</v>
+        <v>184</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>162</v>
+        <v>180</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="1">
-        <v>9</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>255</v>
+        <v>180</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>256</v>
+        <v>180</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C66" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>78</v>
+        <v>190</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>195</v>
+        <v>63</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>196</v>
+        <v>64</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="1">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="C73" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="1">
-        <v>8</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="C75" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="C76" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="1">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" s="1">
-        <v>9</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>200</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="1">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>203</v>
+        <v>7</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>204</v>
+        <v>74</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
+        <v>192</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>91</v>
+        <v>9</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
+        <v>325</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="C98" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>208</v>
+        <v>77</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C100" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C101" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C102" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C103" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>259</v>
+        <v>11</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>260</v>
+        <v>11</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C114" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C123" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>158</v>
+        <v>204</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>159</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>118</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>119</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>121</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>122</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C165" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C174" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B199" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="C202" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B146" s="1" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B149" s="1" t="s">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B150" s="1" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B151" s="1" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C230" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B152" s="1" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B153" s="1" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B154" s="1" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B156" s="1" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B157" s="1" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B158" s="1" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B175" s="1" t="s">
+      <c r="B243" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B176" s="1" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B177" s="1" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B178" s="1" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B184" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C188" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>252</v>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C247" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C250" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C255" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C256" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C257" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C260" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C265" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C269" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C270" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(C66))=0</formula>
+  <conditionalFormatting sqref="C89">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(C89))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="NCBI" xr:uid="{512444BC-54BD-D940-B05C-7C248E9637FB}"/>
+    <hyperlink ref="A1" r:id="rId1" display="NCBI" xr:uid="{292378B2-22A1-FF41-A377-F26595CAA602}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
